--- a/Cleaned/outputedited/surveyanswers.xlsx
+++ b/Cleaned/outputedited/surveyanswers.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13960" yWindow="660" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32600" windowHeight="23160" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="surveyanswers.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="surveyanswers.csv (3)" sheetId="3" r:id="rId1"/>
+    <sheet name="surveyanswers.csv" sheetId="1" r:id="rId2"/>
+    <sheet name="surveyanswers.csv (2)" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="55">
   <si>
     <t>participant</t>
   </si>
@@ -158,6 +160,33 @@
   <si>
     <t>Other</t>
   </si>
+  <si>
+    <t>Easy-to-identify distraction</t>
+  </si>
+  <si>
+    <t>Medium-hard-to-identify distraction</t>
+  </si>
+  <si>
+    <t>Hard-to-identify distraction</t>
+  </si>
+  <si>
+    <t>I don't know</t>
+  </si>
+  <si>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>Question 3</t>
+  </si>
+  <si>
+    <t>Question 4</t>
+  </si>
+  <si>
+    <t>correct results</t>
+  </si>
 </sst>
 </file>
 
@@ -200,12 +229,18 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -217,7 +252,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -277,13 +312,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="121">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -313,6 +412,37 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -342,11 +472,872 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>surveyanswers.csv!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>surveyanswers.csv!$B$51:$E$51</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Question 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Question 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Question 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Question 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>surveyanswers.csv!$B$52:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>surveyanswers.csv!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Easy-to-identify distraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>surveyanswers.csv!$B$51:$E$51</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Question 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Question 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Question 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Question 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>surveyanswers.csv!$B$53:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>surveyanswers.csv!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium-hard-to-identify distraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>surveyanswers.csv!$B$51:$E$51</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Question 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Question 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Question 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Question 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>surveyanswers.csv!$B$54:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>surveyanswers.csv!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hard-to-identify distraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>surveyanswers.csv!$B$51:$E$51</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Question 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Question 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Question 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Question 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>surveyanswers.csv!$B$55:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>surveyanswers.csv!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I don't know</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>surveyanswers.csv!$B$51:$E$51</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Question 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Question 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Question 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Question 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>surveyanswers.csv!$B$56:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2116051320"/>
+        <c:axId val="-2116048232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2116051320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2116048232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2116048232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2116051320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'surveyanswers.csv (2)'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'surveyanswers.csv (2)'!$B$24:$E$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Question 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Question 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Question 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Question 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'surveyanswers.csv (2)'!$B$25:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'surveyanswers.csv (2)'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Easy-to-identify distraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'surveyanswers.csv (2)'!$B$24:$E$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Question 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Question 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Question 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Question 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'surveyanswers.csv (2)'!$B$26:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'surveyanswers.csv (2)'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium-hard-to-identify distraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'surveyanswers.csv (2)'!$B$24:$E$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Question 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Question 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Question 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Question 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'surveyanswers.csv (2)'!$B$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'surveyanswers.csv (2)'!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hard-to-identify distraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'surveyanswers.csv (2)'!$B$24:$E$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Question 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Question 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Question 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Question 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'surveyanswers.csv (2)'!$B$28:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'surveyanswers.csv (2)'!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I don't know</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'surveyanswers.csv (2)'!$B$24:$E$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Question 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Question 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Question 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Question 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'surveyanswers.csv (2)'!$B$29:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2145193112"/>
+        <c:axId val="-2145190136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2145193112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2145190136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2145190136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2145193112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -671,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3113,161 +4104,6 @@
       <c r="R43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" ht="19">
-      <c r="A44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="2">
-        <f>COUNTIF(B2:B43,1)</f>
-        <v>30</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2">
-        <f>COUNTIF(D2:D43,3)</f>
-        <v>33</v>
-      </c>
-      <c r="F44" s="2">
-        <f>COUNTIF(F2:F43,4)</f>
-        <v>26</v>
-      </c>
-      <c r="H44" s="2">
-        <f>COUNTIF(H2:H43,3)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="19">
-      <c r="I45" t="s">
-        <v>30</v>
-      </c>
-      <c r="J45" s="2">
-        <f>COUNTIF(J2:J43,1)</f>
-        <v>34</v>
-      </c>
-      <c r="K45" t="s">
-        <v>32</v>
-      </c>
-      <c r="L45" s="2">
-        <f>COUNTIF(L2:L43,1)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="19">
-      <c r="I46" t="s">
-        <v>31</v>
-      </c>
-      <c r="J46" s="2">
-        <f>COUNTIF(J2:J43,2)</f>
-        <v>8</v>
-      </c>
-      <c r="K46" t="s">
-        <v>33</v>
-      </c>
-      <c r="L46" s="2">
-        <f>COUNTIF(L2:L43,2)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="19">
-      <c r="K47" t="s">
-        <v>34</v>
-      </c>
-      <c r="L47" s="2">
-        <f>COUNTIF(L2:L43,3)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="19">
-      <c r="K48" t="s">
-        <v>35</v>
-      </c>
-      <c r="L48" s="2">
-        <f>COUNTIF(L2:L43,4)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="10:13" ht="19">
-      <c r="K49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L49" s="2">
-        <f>COUNTIF(L2:L43,5)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="10:13" ht="19">
-      <c r="J51" t="s">
-        <v>37</v>
-      </c>
-      <c r="K51" s="2">
-        <f>COUNTIF(K2:K43,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L51" t="s">
-        <v>42</v>
-      </c>
-      <c r="M51" s="2">
-        <f>COUNTIF(M2:M43,1)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="10:13" ht="19">
-      <c r="J52" t="s">
-        <v>38</v>
-      </c>
-      <c r="K52" s="2">
-        <f>COUNTIF(K2:K43,2)</f>
-        <v>8</v>
-      </c>
-      <c r="L52" t="s">
-        <v>43</v>
-      </c>
-      <c r="M52" s="2">
-        <f>COUNTIF(M2:M43,2)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="10:13" ht="19">
-      <c r="J53" t="s">
-        <v>39</v>
-      </c>
-      <c r="K53" s="2">
-        <f>COUNTIF(K2:K43,3)</f>
-        <v>24</v>
-      </c>
-      <c r="L53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M53" s="2">
-        <f>COUNTIF(M2:M43,3)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="10:13" ht="19">
-      <c r="J54" t="s">
-        <v>40</v>
-      </c>
-      <c r="K54" s="2">
-        <f>COUNTIF(K2:K43,4)</f>
-        <v>5</v>
-      </c>
-      <c r="L54" t="s">
-        <v>45</v>
-      </c>
-      <c r="M54" s="2">
-        <f>COUNTIF(M2:M43,4)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="10:13" ht="19">
-      <c r="J55" t="s">
-        <v>41</v>
-      </c>
-      <c r="K55" s="2">
-        <f>COUNTIF(K2:K43,5)</f>
-        <v>5</v>
-      </c>
-      <c r="M55" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3278,4 +4114,4082 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>3</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="P32">
+        <v>3</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33">
+        <v>3</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>3</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+      <c r="R35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="Q36">
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>3</v>
+      </c>
+      <c r="P37">
+        <v>3</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
+        <v>3</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>28</v>
+      </c>
+      <c r="O39" t="s">
+        <v>28</v>
+      </c>
+      <c r="P39" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>28</v>
+      </c>
+      <c r="R39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+      <c r="P41">
+        <v>3</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+      <c r="R41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>5</v>
+      </c>
+      <c r="M42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <v>3</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="19">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" s="2">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>3</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="R43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="19">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="2">
+        <f>COUNTIF(B2:B43,1)</f>
+        <v>30</v>
+      </c>
+      <c r="C44" s="2">
+        <v>33</v>
+      </c>
+      <c r="D44" s="2">
+        <v>26</v>
+      </c>
+      <c r="E44">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="19">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="2">
+        <f>COUNTIF(B2:B43,3)</f>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>30</v>
+      </c>
+      <c r="J45" s="2">
+        <f>COUNTIF(J2:J43,1)</f>
+        <v>34</v>
+      </c>
+      <c r="K45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" s="2">
+        <f>COUNTIF(L2:L43,1)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="19">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2">
+        <f>COUNTIF(B3:B43,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="2">
+        <f>COUNTIF(J2:J43,2)</f>
+        <v>8</v>
+      </c>
+      <c r="K46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L46" s="2">
+        <f>COUNTIF(L2:L43,2)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="19">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="2">
+        <f>COUNTIF(B4:B44,4)</f>
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="K47" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="2">
+        <f>COUNTIF(L2:L43,3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="19">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2">
+        <f>COUNTIF(B5:B45,5)</f>
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="K48" t="s">
+        <v>35</v>
+      </c>
+      <c r="L48" s="2">
+        <f>COUNTIF(L2:L43,4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="19">
+      <c r="K49" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" s="2">
+        <f>COUNTIF(L2:L43,5)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="19">
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>53</v>
+      </c>
+      <c r="J51" t="s">
+        <v>37</v>
+      </c>
+      <c r="K51" s="2">
+        <f>COUNTIF(K2:K43,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" s="2">
+        <f>COUNTIF(M2:M43,1)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="19">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="2">
+        <v>30</v>
+      </c>
+      <c r="C52" s="2">
+        <v>33</v>
+      </c>
+      <c r="D52" s="2">
+        <v>26</v>
+      </c>
+      <c r="E52">
+        <v>28</v>
+      </c>
+      <c r="J52" t="s">
+        <v>38</v>
+      </c>
+      <c r="K52" s="2">
+        <f>COUNTIF(K2:K43,2)</f>
+        <v>8</v>
+      </c>
+      <c r="L52" t="s">
+        <v>43</v>
+      </c>
+      <c r="M52" s="2">
+        <f>COUNTIF(M2:M43,2)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="19">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>39</v>
+      </c>
+      <c r="K53" s="2">
+        <f>COUNTIF(K2:K43,3)</f>
+        <v>24</v>
+      </c>
+      <c r="L53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M53" s="2">
+        <f>COUNTIF(M2:M43,3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="19">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="2">
+        <f>COUNTIF(K2:K43,4)</f>
+        <v>5</v>
+      </c>
+      <c r="L54" t="s">
+        <v>45</v>
+      </c>
+      <c r="M54" s="2">
+        <f>COUNTIF(M2:M43,4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="19">
+      <c r="A55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="2">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" s="2">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="J55" t="s">
+        <v>41</v>
+      </c>
+      <c r="K55" s="2">
+        <f>COUNTIF(K2:K43,5)</f>
+        <v>5</v>
+      </c>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13" ht="19">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="2">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>9</v>
+      </c>
+      <c r="E56">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="4">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="19">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
+        <f>COUNTIF(B2:B16,1)</f>
+        <v>11</v>
+      </c>
+      <c r="C17" s="2">
+        <f>COUNTIF(D2:D16,3)</f>
+        <v>12</v>
+      </c>
+      <c r="D17" s="2">
+        <f>COUNTIF(F2:F16,4)</f>
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <f>COUNTIF(H2:H16,3)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="19">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2">
+        <f>COUNTIF(B2:B16,3)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f>COUNTIF(D2:D16,2)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f>COUNTIF(F2:F16,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f>COUNTIF(H2:H16,4)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="2">
+        <f>COUNTIF(K2:K16,1)</f>
+        <v>13</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="2">
+        <f>COUNTIF(M2:M16,1)</f>
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <f>CORREL(J2:J16,O2:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>CORREL(J2:J16,P2:P16)</f>
+        <v>0.34641016151377546</v>
+      </c>
+      <c r="Q18">
+        <f>CORREL(J2:J16,Q2:Q16)</f>
+        <v>-0.17320508075688773</v>
+      </c>
+      <c r="R18">
+        <f>CORREL(J2:J16,R2:R16)</f>
+        <v>-0.27695585470349859</v>
+      </c>
+      <c r="S18">
+        <f>CORREL(J2:J16,S2:S16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="19">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2">
+        <f>COUNTIF(B3:B16,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <f>COUNTIF(D3:D16,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <f>COUNTIF(F3:F16,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <f>COUNTIF(H3:H16,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="2">
+        <f>COUNTIF(K2:K16,2)</f>
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="2">
+        <f>COUNTIF(M2:M16,2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="19">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2">
+        <f>COUNTIF(B3:B17,4)</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <f>COUNTIF(D3:D17,4)</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <f>COUNTIF(F3:F17,3)</f>
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <f>COUNTIF(H3:H17,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="2">
+        <f>COUNTIF(M2:M16,3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="19">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="2">
+        <f>COUNTIF(B3:B18,5)</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <f>COUNTIF(D3:D18,5)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <f>COUNTIF(F3:F18,5)</f>
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <f>COUNTIF(H3:H18,5)</f>
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="2">
+        <f>COUNTIF(M2:M16,4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="19">
+      <c r="L22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="2">
+        <f>COUNTIF(M2:M16,5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="19">
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="2">
+        <f>COUNTIF(L2:L16,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="2">
+        <f>COUNTIF(N2:N16,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="19">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="2">
+        <f>COUNTIF(L2:L16,2)</f>
+        <v>4</v>
+      </c>
+      <c r="M25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" s="2">
+        <f>COUNTIF(N2:N16,2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="19">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="2">
+        <f>COUNTIF(L2:L16,3)</f>
+        <v>8</v>
+      </c>
+      <c r="M26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="2">
+        <f>COUNTIF(N2:N16,3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="19">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="2">
+        <f>COUNTIF(L2:L16,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" s="2">
+        <f>COUNTIF(N2:N16,4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="19">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="2">
+        <f>COUNTIF(L2:L16,5)</f>
+        <v>2</v>
+      </c>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:19" ht="19">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="2">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>